--- a/artfynd/A 36510-2025 artfynd.xlsx
+++ b/artfynd/A 36510-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>122665746</v>
       </c>
       <c r="B2" t="n">
-        <v>99045</v>
+        <v>99049</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 36510-2025 artfynd.xlsx
+++ b/artfynd/A 36510-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>122665746</v>
       </c>
       <c r="B2" t="n">
-        <v>99049</v>
+        <v>99050</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 36510-2025 artfynd.xlsx
+++ b/artfynd/A 36510-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>122665746</v>
       </c>
       <c r="B2" t="n">
-        <v>99050</v>
+        <v>99051</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 36510-2025 artfynd.xlsx
+++ b/artfynd/A 36510-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>122665746</v>
       </c>
       <c r="B2" t="n">
-        <v>99051</v>
+        <v>99054</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
